--- a/algroithm_lab2/bin/Debug/netcoreapp3.1/measures.xlsx
+++ b/algroithm_lab2/bin/Debug/netcoreapp3.1/measures.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\Popka\Visual Studio\algroithm_lab2\algroithm_lab2\bin\Debug\netcoreapp3.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023539E7-FD22-46B0-89AF-B511CAE3057A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED76355-A498-466D-B969-464E74BBDEB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
     <sheet name="100" sheetId="2" r:id="rId2"/>
     <sheet name="1000" sheetId="3" r:id="rId3"/>
+    <sheet name="Task4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>ms</t>
   </si>
@@ -45,6 +46,18 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>operations N</t>
+  </si>
+  <si>
+    <t>N*N</t>
+  </si>
+  <si>
+    <t>Next/cur (N)</t>
+  </si>
+  <si>
+    <t>Next/cur (t)</t>
   </si>
 </sst>
 </file>
@@ -68,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -76,12 +89,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1396,6 +1449,830 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эксперимент</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task4!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270.90600000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1215.518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3257-47AA-87A0-E0D752E31370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="516598168"/>
+        <c:axId val="516599152"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Теория</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Task4!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Task4!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4294967296</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17179869184</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68719476736</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>274877906944</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3257-47AA-87A0-E0D752E31370}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="323930968"/>
+        <c:axId val="580732952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="516598168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516599152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516599152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t(N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516598168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580732952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N^2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="323930968"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="323930968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="580732952"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1516,6 +2393,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2549,6 +3466,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3167,6 +4600,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D1EA40-9B6B-4D5D-A57C-36BCDBC05951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB436970-D787-4B4F-AB4B-3C6E1CB57A2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3521,7 +4995,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G3">
-        <f>C3/D3</f>
+        <f t="shared" ref="G3:G21" si="1">C3/D3</f>
         <v>1.5384615384615385</v>
       </c>
     </row>
@@ -3543,7 +5017,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G4">
-        <f>C4/D4</f>
+        <f t="shared" si="1"/>
         <v>2.3529411764705883</v>
       </c>
     </row>
@@ -3565,7 +5039,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="G5">
-        <f>C5/D5</f>
+        <f t="shared" si="1"/>
         <v>3.8095238095238093</v>
       </c>
     </row>
@@ -3587,7 +5061,7 @@
         <v>0.03</v>
       </c>
       <c r="G6">
-        <f>C6/D6</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -3609,7 +5083,7 @@
         <v>0.06</v>
       </c>
       <c r="G7">
-        <f>C7/D7</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -3631,7 +5105,7 @@
         <v>0.12</v>
       </c>
       <c r="G8">
-        <f>C8/D8</f>
+        <f t="shared" si="1"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -3653,7 +5127,7 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="G9">
-        <f>C9/D9</f>
+        <f t="shared" si="1"/>
         <v>5.4468085106382977</v>
       </c>
     </row>
@@ -3675,7 +5149,7 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="G10">
-        <f>C10/D10</f>
+        <f t="shared" si="1"/>
         <v>5.4817987152034258</v>
       </c>
     </row>
@@ -3697,7 +5171,7 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="G11">
-        <f>C11/D11</f>
+        <f t="shared" si="1"/>
         <v>5.2947259565667011</v>
       </c>
     </row>
@@ -3719,7 +5193,7 @@
         <v>1.8879999999999999</v>
       </c>
       <c r="G12">
-        <f>C12/D12</f>
+        <f t="shared" si="1"/>
         <v>5.4237288135593218</v>
       </c>
     </row>
@@ -3741,7 +5215,7 @@
         <v>3.645</v>
       </c>
       <c r="G13">
-        <f>C13/D13</f>
+        <f t="shared" si="1"/>
         <v>5.6186556927297664</v>
       </c>
     </row>
@@ -3763,7 +5237,7 @@
         <v>7.1479999999999997</v>
       </c>
       <c r="G14">
-        <f>C14/D14</f>
+        <f t="shared" si="1"/>
         <v>5.7302742025741464</v>
       </c>
     </row>
@@ -3785,7 +5259,7 @@
         <v>11.179</v>
       </c>
       <c r="G15">
-        <f>C15/D15</f>
+        <f t="shared" si="1"/>
         <v>7.3280257625905714</v>
       </c>
     </row>
@@ -3807,7 +5281,7 @@
         <v>18.684999999999999</v>
       </c>
       <c r="G16">
-        <f>C16/D16</f>
+        <f t="shared" si="1"/>
         <v>8.7685309071447683</v>
       </c>
     </row>
@@ -3829,7 +5303,7 @@
         <v>33.344999999999999</v>
       </c>
       <c r="G17">
-        <f>C17/D17</f>
+        <f t="shared" si="1"/>
         <v>9.8269605638026682</v>
       </c>
     </row>
@@ -3851,7 +5325,7 @@
         <v>65.061000000000007</v>
       </c>
       <c r="G18">
-        <f>C18/D18</f>
+        <f t="shared" si="1"/>
         <v>10.073008407494505</v>
       </c>
     </row>
@@ -3873,7 +5347,7 @@
         <v>129.114</v>
       </c>
       <c r="G19">
-        <f>C19/D19</f>
+        <f t="shared" si="1"/>
         <v>10.15164893040259</v>
       </c>
     </row>
@@ -3895,7 +5369,7 @@
         <v>258.09899999999999</v>
       </c>
       <c r="G20">
-        <f>C20/D20</f>
+        <f t="shared" si="1"/>
         <v>10.156722807914793</v>
       </c>
     </row>
@@ -3917,7 +5391,7 @@
         <v>515.97900000000004</v>
       </c>
       <c r="G21">
-        <f>C21/D21</f>
+        <f t="shared" si="1"/>
         <v>10.161033685479447</v>
       </c>
     </row>
@@ -3980,7 +5454,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G2">
-        <f>C2/D2</f>
+        <f t="shared" ref="G2:G17" si="0">C2/D2</f>
         <v>5.882352941176471</v>
       </c>
     </row>
@@ -3998,11 +5472,11 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">D3/1000</f>
+        <f t="shared" ref="E3:E19" si="1">D3/1000</f>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="G3">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
     </row>
@@ -4020,11 +5494,11 @@
         <v>81</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="G4">
-        <f>C4/D4</f>
         <v>4.9382716049382713</v>
       </c>
     </row>
@@ -4042,11 +5516,11 @@
         <v>165</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="G5">
-        <f>C5/D5</f>
         <v>4.8484848484848486</v>
       </c>
     </row>
@@ -4064,11 +5538,11 @@
         <v>360</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="G6">
-        <f>C6/D6</f>
         <v>4.4444444444444446</v>
       </c>
     </row>
@@ -4086,11 +5560,11 @@
         <v>798</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="G7">
-        <f>C7/D7</f>
         <v>4.0100250626566414</v>
       </c>
     </row>
@@ -4108,11 +5582,11 @@
         <v>1606</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="G8">
-        <f>C8/D8</f>
         <v>3.9850560398505603</v>
       </c>
     </row>
@@ -4130,11 +5604,11 @@
         <v>3131</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.1309999999999998</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>3.1309999999999998</v>
-      </c>
-      <c r="G9">
-        <f>C9/D9</f>
         <v>4.0881507505589267</v>
       </c>
     </row>
@@ -4152,11 +5626,11 @@
         <v>7070</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>7.07</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>7.07</v>
-      </c>
-      <c r="G10">
-        <f>C10/D10</f>
         <v>3.6209335219236207</v>
       </c>
     </row>
@@ -4174,11 +5648,11 @@
         <v>12199</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>12.199</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>12.199</v>
-      </c>
-      <c r="G11">
-        <f>C11/D11</f>
         <v>4.1970653332240344</v>
       </c>
     </row>
@@ -4196,11 +5670,11 @@
         <v>19792</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>19.792000000000002</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>19.792000000000002</v>
-      </c>
-      <c r="G12">
-        <f>C12/D12</f>
         <v>5.1738075990299111</v>
       </c>
     </row>
@@ -4218,11 +5692,11 @@
         <v>34921</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>34.920999999999999</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>34.920999999999999</v>
-      </c>
-      <c r="G13">
-        <f>C13/D13</f>
         <v>5.8646659603104148</v>
       </c>
     </row>
@@ -4240,11 +5714,11 @@
         <v>63815</v>
       </c>
       <c r="E14">
+        <f t="shared" si="1"/>
+        <v>63.814999999999998</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>63.814999999999998</v>
-      </c>
-      <c r="G14">
-        <f>C14/D14</f>
         <v>6.418553631591319</v>
       </c>
     </row>
@@ -4262,11 +5736,11 @@
         <v>121746</v>
       </c>
       <c r="E15">
+        <f t="shared" si="1"/>
+        <v>121.746</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="0"/>
-        <v>121.746</v>
-      </c>
-      <c r="G15">
-        <f>C15/D15</f>
         <v>6.7287631626501074</v>
       </c>
     </row>
@@ -4284,11 +5758,11 @@
         <v>239945</v>
       </c>
       <c r="E16">
+        <f t="shared" si="1"/>
+        <v>239.94499999999999</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="0"/>
-        <v>239.94499999999999</v>
-      </c>
-      <c r="G16">
-        <f>C16/D16</f>
         <v>6.8282314697118087</v>
       </c>
     </row>
@@ -4307,17 +5781,17 @@
         <v>475678</v>
       </c>
       <c r="E17">
+        <f t="shared" si="1"/>
+        <v>475.678</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="0"/>
-        <v>475.678</v>
-      </c>
-      <c r="G17">
-        <f>C17/D17</f>
         <v>6.8886936120653051</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" ref="A18:A19" si="1">C18/B18</f>
+        <f t="shared" ref="A18:A19" si="2">C18/B18</f>
         <v>65536</v>
       </c>
       <c r="B18">
@@ -4330,17 +5804,17 @@
         <v>940063</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>940.06299999999999</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G19" si="2">C18/D18</f>
+        <f t="shared" ref="G18:G19" si="3">C18/D18</f>
         <v>6.9714476582952418</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131072</v>
       </c>
       <c r="B19">
@@ -4353,11 +5827,11 @@
         <v>1949595</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1949.595</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7230373487826958</v>
       </c>
     </row>
@@ -4371,7 +5845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE39374-6235-4CAE-B80B-BDE938ABCE31}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E11"/>
     </sheetView>
   </sheetViews>
@@ -4625,4 +6099,535 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD0BE20-8406-437B-9FE9-E12DAEAD8A16}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <f>A2*A2</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>A3/A2</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>B3/B2</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C21" si="0">B3/1000</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <f>A3*A3</f>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>A4/A3</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>B4/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <f>A4*A4</f>
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <f>A5/A4</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>B5/B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <f>A5*A5</f>
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <f>A6/A5</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>B6/B5</f>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <f>A6*A6</f>
+        <v>256</v>
+      </c>
+      <c r="F6">
+        <f>A7/A6</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>B7/B6</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7">
+        <f>A7*A7</f>
+        <v>1024</v>
+      </c>
+      <c r="F7">
+        <f>A8/A7</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>B8/B7</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D8">
+        <f>A8*A8</f>
+        <v>4096</v>
+      </c>
+      <c r="F8">
+        <f>A9/A8</f>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>B9/B8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D9">
+        <f>A9*A9</f>
+        <v>16384</v>
+      </c>
+      <c r="F9">
+        <f>A10/A9</f>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>B10/B9</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>256</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <f>A10*A10</f>
+        <v>65536</v>
+      </c>
+      <c r="F10">
+        <f>A11/A10</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>B11/B10</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>512</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="D11">
+        <f>A11*A11</f>
+        <v>262144</v>
+      </c>
+      <c r="F11">
+        <f>A12/A11</f>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>B12/B11</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D12">
+        <f>A12*A12</f>
+        <v>1048576</v>
+      </c>
+      <c r="F12">
+        <f>A13/A12</f>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>B13/B12</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <f>A13*A13</f>
+        <v>4194304</v>
+      </c>
+      <c r="F13">
+        <f>A14/A13</f>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f>B14/B13</f>
+        <v>1.7692307692307692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4096</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <f>A14*A14</f>
+        <v>16777216</v>
+      </c>
+      <c r="F14">
+        <f>A15/A14</f>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>B15/B14</f>
+        <v>2.7608695652173911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>8192</v>
+      </c>
+      <c r="B15">
+        <v>127</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.127</v>
+      </c>
+      <c r="D15">
+        <f>A15*A15</f>
+        <v>67108864</v>
+      </c>
+      <c r="F15">
+        <f>A16/A15</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>B16/B15</f>
+        <v>4.2913385826771657</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16384</v>
+      </c>
+      <c r="B16">
+        <v>545</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D16">
+        <f>A16*A16</f>
+        <v>268435456</v>
+      </c>
+      <c r="F16">
+        <f>A17/A16</f>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f>B17/B16</f>
+        <v>4.6055045871559637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>32768</v>
+      </c>
+      <c r="B17">
+        <v>2510</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D17">
+        <f>A17*A17</f>
+        <v>1073741824</v>
+      </c>
+      <c r="F17">
+        <f>A18/A17</f>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f>B18/B17</f>
+        <v>3.8286852589641436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>65536</v>
+      </c>
+      <c r="B18">
+        <v>9610</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>9.61</v>
+      </c>
+      <c r="D18">
+        <f>A18*A18</f>
+        <v>4294967296</v>
+      </c>
+      <c r="F18">
+        <f>A19/A18</f>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f>B19/B18</f>
+        <v>5.1961498439125915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>131072</v>
+      </c>
+      <c r="B19">
+        <v>49935</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>49.935000000000002</v>
+      </c>
+      <c r="D19">
+        <f>A19*A19</f>
+        <v>17179869184</v>
+      </c>
+      <c r="F19">
+        <f>A20/A19</f>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>B20/B19</f>
+        <v>5.4251727245419046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>262144</v>
+      </c>
+      <c r="B20">
+        <v>270906</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>270.90600000000001</v>
+      </c>
+      <c r="D20">
+        <f>A20*A20</f>
+        <v>68719476736</v>
+      </c>
+      <c r="F20">
+        <f>A21/A20</f>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f>B21/B20</f>
+        <v>4.4868626017880739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>524288</v>
+      </c>
+      <c r="B21">
+        <v>1215518</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>1215.518</v>
+      </c>
+      <c r="D21">
+        <f>A21*A21</f>
+        <v>274877906944</v>
+      </c>
+      <c r="F21">
+        <f>A22/A21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>B22/B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f>LOG(4.7,2)</f>
+        <v>2.232660756790275</v>
+      </c>
+      <c r="F26">
+        <f>E26*E26</f>
+        <v>4.9847740549113233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>